--- a/INTLINE/data/548/BNM/Federal Government Operating Expenditure by ObjectA_historical.xlsx
+++ b/INTLINE/data/548/BNM/Federal Government Operating Expenditure by ObjectA_historical.xlsx
@@ -1,37 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Federal Government Operating E" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Federal Government Operating E" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Domestic</t>
+  </si>
+  <si>
+    <t>External</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,10 +63,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -57,14 +82,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -353,595 +379,595 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AU4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AV4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="n">
+    <row r="1" spans="1:48">
+      <c r="B1" s="1">
         <v>1976</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="C1" s="1">
         <v>1977</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="D1" s="1">
         <v>1978</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="E1" s="1">
         <v>1979</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="F1" s="1">
         <v>1980</v>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="G1" s="1">
         <v>1981</v>
       </c>
-      <c r="H1" s="1" t="n">
+      <c r="H1" s="1">
         <v>1982</v>
       </c>
-      <c r="I1" s="1" t="n">
+      <c r="I1" s="1">
         <v>1983</v>
       </c>
-      <c r="J1" s="1" t="n">
+      <c r="J1" s="1">
         <v>1984</v>
       </c>
-      <c r="K1" s="1" t="n">
+      <c r="K1" s="1">
         <v>1985</v>
       </c>
-      <c r="L1" s="1" t="n">
+      <c r="L1" s="1">
         <v>1986</v>
       </c>
-      <c r="M1" s="1" t="n">
+      <c r="M1" s="1">
         <v>1987</v>
       </c>
-      <c r="N1" s="1" t="n">
+      <c r="N1" s="1">
         <v>1988</v>
       </c>
-      <c r="O1" s="1" t="n">
+      <c r="O1" s="1">
         <v>1989</v>
       </c>
-      <c r="P1" s="1" t="n">
+      <c r="P1" s="1">
         <v>1990</v>
       </c>
-      <c r="Q1" s="1" t="n">
+      <c r="Q1" s="1">
         <v>1991</v>
       </c>
-      <c r="R1" s="1" t="n">
+      <c r="R1" s="1">
         <v>1992</v>
       </c>
-      <c r="S1" s="1" t="n">
+      <c r="S1" s="1">
         <v>1993</v>
       </c>
-      <c r="T1" s="1" t="n">
+      <c r="T1" s="1">
         <v>1994</v>
       </c>
-      <c r="U1" s="1" t="n">
+      <c r="U1" s="1">
         <v>1995</v>
       </c>
-      <c r="V1" s="1" t="n">
+      <c r="V1" s="1">
         <v>1996</v>
       </c>
-      <c r="W1" s="1" t="n">
+      <c r="W1" s="1">
         <v>1997</v>
       </c>
-      <c r="X1" s="1" t="n">
+      <c r="X1" s="1">
         <v>1998</v>
       </c>
-      <c r="Y1" s="1" t="n">
+      <c r="Y1" s="1">
         <v>1999</v>
       </c>
-      <c r="Z1" s="1" t="n">
+      <c r="Z1" s="1">
         <v>2000</v>
       </c>
-      <c r="AA1" s="1" t="n">
+      <c r="AA1" s="1">
         <v>2001</v>
       </c>
-      <c r="AB1" s="1" t="n">
+      <c r="AB1" s="1">
         <v>2002</v>
       </c>
-      <c r="AC1" s="1" t="n">
+      <c r="AC1" s="1">
         <v>2003</v>
       </c>
-      <c r="AD1" s="1" t="n">
+      <c r="AD1" s="1">
         <v>2004</v>
       </c>
-      <c r="AE1" s="1" t="n">
+      <c r="AE1" s="1">
         <v>2005</v>
       </c>
-      <c r="AF1" s="1" t="n">
+      <c r="AF1" s="1">
         <v>2006</v>
       </c>
-      <c r="AG1" s="1" t="n">
+      <c r="AG1" s="1">
         <v>2007</v>
       </c>
-      <c r="AH1" s="1" t="n">
+      <c r="AH1" s="1">
         <v>2008</v>
       </c>
-      <c r="AI1" s="1" t="n">
+      <c r="AI1" s="1">
         <v>2009</v>
       </c>
-      <c r="AJ1" s="1" t="n">
+      <c r="AJ1" s="1">
         <v>2010</v>
       </c>
-      <c r="AK1" s="1" t="n">
+      <c r="AK1" s="1">
         <v>2011</v>
       </c>
-      <c r="AL1" s="1" t="n">
+      <c r="AL1" s="1">
         <v>2012</v>
       </c>
-      <c r="AM1" s="1" t="n">
+      <c r="AM1" s="1">
         <v>2013</v>
       </c>
-      <c r="AN1" s="1" t="n">
+      <c r="AN1" s="1">
         <v>2014</v>
       </c>
-      <c r="AO1" s="1" t="n">
+      <c r="AO1" s="1">
         <v>2015</v>
       </c>
-      <c r="AP1" s="1" t="n">
+      <c r="AP1" s="1">
         <v>2016</v>
       </c>
-      <c r="AQ1" s="1" t="n">
+      <c r="AQ1" s="1">
         <v>2017</v>
       </c>
-      <c r="AR1" s="1" t="n">
+      <c r="AR1" s="1">
         <v>2018</v>
       </c>
-      <c r="AS1" s="1" t="n">
+      <c r="AS1" s="1">
         <v>2019</v>
       </c>
-      <c r="AT1" s="1" t="n">
+      <c r="AT1" s="1">
         <v>2020</v>
       </c>
-      <c r="AU1" s="1" t="n">
+      <c r="AU1" s="1">
         <v>2021</v>
       </c>
+      <c r="AV1" s="1">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:48">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>837</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>960</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>1134</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>1271</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>1547</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>2046</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>2724</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>3453</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>4430</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>5042</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>5239</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>5763</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2">
         <v>6178</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2">
         <v>6743</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2">
         <v>6830</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2">
         <v>7048</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2">
         <v>7304</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S2">
         <v>7166</v>
       </c>
-      <c r="T2" t="n">
+      <c r="T2">
         <v>6815</v>
       </c>
-      <c r="U2" t="n">
+      <c r="U2">
         <v>6521</v>
       </c>
-      <c r="V2" t="n">
+      <c r="V2">
         <v>6795</v>
       </c>
-      <c r="W2" t="n">
+      <c r="W2">
         <v>6426</v>
       </c>
-      <c r="X2" t="n">
+      <c r="X2">
         <v>6928</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Y2">
         <v>7941</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="Z2">
         <v>9055</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA2">
         <v>9634</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB2">
         <v>9669</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AC2">
         <v>10546</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AD2">
         <v>10920</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AE2">
         <v>11604</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF2">
         <v>12495.41477265</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AG2">
         <v>12910.8289964</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AH2">
         <v>12796.81789953</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AI2">
         <v>14221.50699347</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AJ2">
         <v>15621.082609</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AK2">
         <v>17715.93006499</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AL2">
         <v>19537.38559925</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AM2">
         <v>20775.61450683</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AN2">
         <v>22587.87071445</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AO2">
         <v>24282.99499496</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AP2">
         <v>26479.52179919001</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AQ2">
         <v>27863.20924391</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AR2">
         <v>30547.011</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AS2">
         <v>32932.67817817999</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AT2">
         <v>34494.80236097999</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AU2">
         <v>38069.0668696</v>
       </c>
+      <c r="AV2">
+        <v>9139.882765750001</v>
+      </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Domestic</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:48">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>1144</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>1408</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>1810</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>2259</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>2719</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>2961</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>3297</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>3727</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3">
         <v>4200</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3">
         <v>4751</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3">
         <v>4890</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3">
         <v>5277</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3">
         <v>5732</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3">
         <v>5827</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T3">
         <v>5679</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U3">
         <v>5635</v>
       </c>
-      <c r="V3" t="n">
+      <c r="V3">
         <v>6045</v>
       </c>
-      <c r="W3" t="n">
+      <c r="W3">
         <v>5789</v>
       </c>
-      <c r="X3" t="n">
+      <c r="X3">
         <v>5897</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Y3">
         <v>7057</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="Z3">
         <v>7868</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AA3">
         <v>8484</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AB3">
         <v>7977</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AC3">
         <v>8663</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AD3">
         <v>9161</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AE3">
         <v>9875</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AF3">
         <v>10990</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AG3">
         <v>11485.02185568</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AH3">
         <v>11642.10519392</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AI3">
         <v>13312.36328037</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AJ3">
         <v>14963.36062795</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AK3">
         <v>17031.93659301</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AL3">
         <v>19035.19727166</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AM3">
         <v>20290.55527418</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AN3">
         <v>22089.12669831</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AO3">
         <v>23713.88500775</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AP3">
         <v>25731.90936369001</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AQ3">
         <v>27159.09921861</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AR3">
         <v>29890.602</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AS3">
         <v>32239.19041952</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="AT3">
         <v>33769.74833633</v>
       </c>
-      <c r="AU3" t="n">
+      <c r="AU3">
         <v>37294.91268412999</v>
       </c>
+      <c r="AV3">
+        <v>9097.727669080001</v>
+      </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:48">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
         <v>0</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>403</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>638</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>914</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>1194</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>1711</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>2081</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4">
         <v>1942</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4">
         <v>2036</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4">
         <v>1978</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4">
         <v>1992</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4">
         <v>1940</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4">
         <v>1771</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4">
         <v>1572</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4">
         <v>1339</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T4">
         <v>1136</v>
       </c>
-      <c r="U4" t="n">
+      <c r="U4">
         <v>886</v>
       </c>
-      <c r="V4" t="n">
+      <c r="V4">
         <v>750</v>
       </c>
-      <c r="W4" t="n">
+      <c r="W4">
         <v>637</v>
       </c>
-      <c r="X4" t="n">
+      <c r="X4">
         <v>1031</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Y4">
         <v>884</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="Z4">
         <v>1187</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AA4">
         <v>1150</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AB4">
         <v>1692</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AC4">
         <v>1883</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AD4">
         <v>1758</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AE4">
         <v>1729</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AF4">
         <v>1506</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AG4">
         <v>1425.79366957</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AH4">
         <v>1154.71270561</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AI4">
         <v>909.1437131</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AJ4">
         <v>657.72198105</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AK4">
         <v>683.99347198</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AL4">
         <v>502.18832759</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AM4">
         <v>485.0592326500001</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AN4">
         <v>498.7440161400001</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AO4">
         <v>569.10998721</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AP4">
         <v>747.6124354999999</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="AQ4">
         <v>704.1100253</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="AR4">
         <v>656.409</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="AS4">
         <v>693.4877586600001</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="AT4">
         <v>725.0540246499999</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="AU4">
         <v>774.1541854700001</v>
+      </c>
+      <c r="AV4">
+        <v>42.15509667</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/INTLINE/data/548/BNM/Federal Government Operating Expenditure by ObjectA_historical.xlsx
+++ b/INTLINE/data/548/BNM/Federal Government Operating Expenditure by ObjectA_historical.xlsx
@@ -1,54 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Federal Government Operating E" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Federal Government Operating E" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Domestic</t>
-  </si>
-  <si>
-    <t>External</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -63,18 +46,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -82,15 +57,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -379,595 +353,607 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:AV4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:48">
-      <c r="B1" s="1">
+    <row r="1">
+      <c r="B1" s="1" t="n">
         <v>1976</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="1" t="n">
         <v>1977</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="1" t="n">
         <v>1978</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="1" t="n">
         <v>1979</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="1" t="n">
         <v>1980</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="1" t="n">
         <v>1981</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="1" t="n">
         <v>1982</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="1" t="n">
         <v>1983</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" s="1" t="n">
         <v>1984</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1" s="1" t="n">
         <v>1985</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L1" s="1" t="n">
         <v>1986</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M1" s="1" t="n">
         <v>1987</v>
       </c>
-      <c r="N1" s="1">
+      <c r="N1" s="1" t="n">
         <v>1988</v>
       </c>
-      <c r="O1" s="1">
+      <c r="O1" s="1" t="n">
         <v>1989</v>
       </c>
-      <c r="P1" s="1">
+      <c r="P1" s="1" t="n">
         <v>1990</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="Q1" s="1" t="n">
         <v>1991</v>
       </c>
-      <c r="R1" s="1">
+      <c r="R1" s="1" t="n">
         <v>1992</v>
       </c>
-      <c r="S1" s="1">
+      <c r="S1" s="1" t="n">
         <v>1993</v>
       </c>
-      <c r="T1" s="1">
+      <c r="T1" s="1" t="n">
         <v>1994</v>
       </c>
-      <c r="U1" s="1">
+      <c r="U1" s="1" t="n">
         <v>1995</v>
       </c>
-      <c r="V1" s="1">
+      <c r="V1" s="1" t="n">
         <v>1996</v>
       </c>
-      <c r="W1" s="1">
+      <c r="W1" s="1" t="n">
         <v>1997</v>
       </c>
-      <c r="X1" s="1">
+      <c r="X1" s="1" t="n">
         <v>1998</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="Y1" s="1" t="n">
         <v>1999</v>
       </c>
-      <c r="Z1" s="1">
+      <c r="Z1" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="AA1" s="1" t="n">
         <v>2001</v>
       </c>
-      <c r="AB1" s="1">
+      <c r="AB1" s="1" t="n">
         <v>2002</v>
       </c>
-      <c r="AC1" s="1">
+      <c r="AC1" s="1" t="n">
         <v>2003</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="AD1" s="1" t="n">
         <v>2004</v>
       </c>
-      <c r="AE1" s="1">
+      <c r="AE1" s="1" t="n">
         <v>2005</v>
       </c>
-      <c r="AF1" s="1">
+      <c r="AF1" s="1" t="n">
         <v>2006</v>
       </c>
-      <c r="AG1" s="1">
+      <c r="AG1" s="1" t="n">
         <v>2007</v>
       </c>
-      <c r="AH1" s="1">
+      <c r="AH1" s="1" t="n">
         <v>2008</v>
       </c>
-      <c r="AI1" s="1">
+      <c r="AI1" s="1" t="n">
         <v>2009</v>
       </c>
-      <c r="AJ1" s="1">
+      <c r="AJ1" s="1" t="n">
         <v>2010</v>
       </c>
-      <c r="AK1" s="1">
+      <c r="AK1" s="1" t="n">
         <v>2011</v>
       </c>
-      <c r="AL1" s="1">
+      <c r="AL1" s="1" t="n">
         <v>2012</v>
       </c>
-      <c r="AM1" s="1">
+      <c r="AM1" s="1" t="n">
         <v>2013</v>
       </c>
-      <c r="AN1" s="1">
+      <c r="AN1" s="1" t="n">
         <v>2014</v>
       </c>
-      <c r="AO1" s="1">
+      <c r="AO1" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="AP1" s="1">
+      <c r="AP1" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="AQ1" s="1">
+      <c r="AQ1" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="AR1" s="1">
+      <c r="AR1" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="AS1" s="1">
+      <c r="AS1" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="AT1" s="1">
+      <c r="AT1" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="AU1" s="1">
+      <c r="AU1" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="AV1" s="1">
+      <c r="AV1" s="1" t="n">
         <v>2022</v>
       </c>
     </row>
-    <row r="2" spans="1:48">
-      <c r="A2" s="1" t="s">
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>837</v>
+      </c>
+      <c r="C2" t="n">
+        <v>960</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1134</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1271</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1547</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2046</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2724</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3453</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4430</v>
+      </c>
+      <c r="K2" t="n">
+        <v>5042</v>
+      </c>
+      <c r="L2" t="n">
+        <v>5239</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5763</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6178</v>
+      </c>
+      <c r="O2" t="n">
+        <v>6743</v>
+      </c>
+      <c r="P2" t="n">
+        <v>6830</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>7048</v>
+      </c>
+      <c r="R2" t="n">
+        <v>7304</v>
+      </c>
+      <c r="S2" t="n">
+        <v>7166</v>
+      </c>
+      <c r="T2" t="n">
+        <v>6815</v>
+      </c>
+      <c r="U2" t="n">
+        <v>6521</v>
+      </c>
+      <c r="V2" t="n">
+        <v>6795</v>
+      </c>
+      <c r="W2" t="n">
+        <v>6426</v>
+      </c>
+      <c r="X2" t="n">
+        <v>6928</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>7941</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>9055</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>9634</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>9669</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>10546</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>10920</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>11604</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>12495.41477265</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>12910.8289964</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>12796.81789953</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>14221.50699347</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>15621.082609</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>17715.93006499</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>19537.38559925</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>20775.61450683</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>22587.87071445</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>24282.99499496</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>26479.52179919001</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>27863.20924391</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>30547.011</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>32932.67817817999</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>34494.80236097999</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>38069.0668696</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>9139.882765750001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Domestic</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>837</v>
-      </c>
-      <c r="C2">
-        <v>960</v>
-      </c>
-      <c r="D2">
-        <v>1134</v>
-      </c>
-      <c r="E2">
-        <v>1271</v>
-      </c>
-      <c r="F2">
-        <v>1547</v>
-      </c>
-      <c r="G2">
-        <v>2046</v>
-      </c>
-      <c r="H2">
-        <v>2724</v>
-      </c>
-      <c r="I2">
-        <v>3453</v>
-      </c>
-      <c r="J2">
-        <v>4430</v>
-      </c>
-      <c r="K2">
-        <v>5042</v>
-      </c>
-      <c r="L2">
-        <v>5239</v>
-      </c>
-      <c r="M2">
-        <v>5763</v>
-      </c>
-      <c r="N2">
-        <v>6178</v>
-      </c>
-      <c r="O2">
-        <v>6743</v>
-      </c>
-      <c r="P2">
-        <v>6830</v>
-      </c>
-      <c r="Q2">
-        <v>7048</v>
-      </c>
-      <c r="R2">
-        <v>7304</v>
-      </c>
-      <c r="S2">
-        <v>7166</v>
-      </c>
-      <c r="T2">
-        <v>6815</v>
-      </c>
-      <c r="U2">
-        <v>6521</v>
-      </c>
-      <c r="V2">
-        <v>6795</v>
-      </c>
-      <c r="W2">
-        <v>6426</v>
-      </c>
-      <c r="X2">
-        <v>6928</v>
-      </c>
-      <c r="Y2">
-        <v>7941</v>
-      </c>
-      <c r="Z2">
-        <v>9055</v>
-      </c>
-      <c r="AA2">
-        <v>9634</v>
-      </c>
-      <c r="AB2">
-        <v>9669</v>
-      </c>
-      <c r="AC2">
-        <v>10546</v>
-      </c>
-      <c r="AD2">
-        <v>10920</v>
-      </c>
-      <c r="AE2">
-        <v>11604</v>
-      </c>
-      <c r="AF2">
-        <v>12495.41477265</v>
-      </c>
-      <c r="AG2">
-        <v>12910.8289964</v>
-      </c>
-      <c r="AH2">
-        <v>12796.81789953</v>
-      </c>
-      <c r="AI2">
-        <v>14221.50699347</v>
-      </c>
-      <c r="AJ2">
-        <v>15621.082609</v>
-      </c>
-      <c r="AK2">
-        <v>17715.93006499</v>
-      </c>
-      <c r="AL2">
-        <v>19537.38559925</v>
-      </c>
-      <c r="AM2">
-        <v>20775.61450683</v>
-      </c>
-      <c r="AN2">
-        <v>22587.87071445</v>
-      </c>
-      <c r="AO2">
-        <v>24282.99499496</v>
-      </c>
-      <c r="AP2">
-        <v>26479.52179919001</v>
-      </c>
-      <c r="AQ2">
-        <v>27863.20924391</v>
-      </c>
-      <c r="AR2">
-        <v>30547.011</v>
-      </c>
-      <c r="AS2">
-        <v>32932.67817817999</v>
-      </c>
-      <c r="AT2">
-        <v>34494.80236097999</v>
-      </c>
-      <c r="AU2">
-        <v>38069.0668696</v>
-      </c>
-      <c r="AV2">
-        <v>9139.882765750001</v>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1144</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1408</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1810</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2259</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2719</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2961</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3297</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3727</v>
+      </c>
+      <c r="N3" t="n">
+        <v>4200</v>
+      </c>
+      <c r="O3" t="n">
+        <v>4751</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4890</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5277</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5732</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5827</v>
+      </c>
+      <c r="T3" t="n">
+        <v>5679</v>
+      </c>
+      <c r="U3" t="n">
+        <v>5635</v>
+      </c>
+      <c r="V3" t="n">
+        <v>6045</v>
+      </c>
+      <c r="W3" t="n">
+        <v>5789</v>
+      </c>
+      <c r="X3" t="n">
+        <v>5897</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>7057</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>7868</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>8484</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>7977</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>8663</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>9161</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>9875</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>10990</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>11485.02185568</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>11642.10519392</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>13312.36328037</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>14963.36062795</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>17031.93659301</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>19035.19727166</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>20290.55527418</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>22089.12669831</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>23713.88500775</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>25731.90936369001</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>27159.09921861</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>29890.602</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>32239.19041952</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>33769.74833633</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>37294.91268412999</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>9097.727669080001</v>
       </c>
     </row>
-    <row r="3" spans="1:48">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>0</v>
       </c>
-      <c r="C3">
+      <c r="C4" t="n">
         <v>0</v>
       </c>
-      <c r="D3">
+      <c r="D4" t="n">
         <v>0</v>
       </c>
-      <c r="E3">
+      <c r="E4" t="n">
         <v>0</v>
       </c>
-      <c r="F3">
-        <v>1144</v>
-      </c>
-      <c r="G3">
-        <v>1408</v>
-      </c>
-      <c r="H3">
-        <v>1810</v>
-      </c>
-      <c r="I3">
-        <v>2259</v>
-      </c>
-      <c r="J3">
-        <v>2719</v>
-      </c>
-      <c r="K3">
-        <v>2961</v>
-      </c>
-      <c r="L3">
-        <v>3297</v>
-      </c>
-      <c r="M3">
-        <v>3727</v>
-      </c>
-      <c r="N3">
-        <v>4200</v>
-      </c>
-      <c r="O3">
-        <v>4751</v>
-      </c>
-      <c r="P3">
-        <v>4890</v>
-      </c>
-      <c r="Q3">
-        <v>5277</v>
-      </c>
-      <c r="R3">
-        <v>5732</v>
-      </c>
-      <c r="S3">
-        <v>5827</v>
-      </c>
-      <c r="T3">
-        <v>5679</v>
-      </c>
-      <c r="U3">
-        <v>5635</v>
-      </c>
-      <c r="V3">
-        <v>6045</v>
-      </c>
-      <c r="W3">
-        <v>5789</v>
-      </c>
-      <c r="X3">
-        <v>5897</v>
-      </c>
-      <c r="Y3">
-        <v>7057</v>
-      </c>
-      <c r="Z3">
-        <v>7868</v>
-      </c>
-      <c r="AA3">
-        <v>8484</v>
-      </c>
-      <c r="AB3">
-        <v>7977</v>
-      </c>
-      <c r="AC3">
-        <v>8663</v>
-      </c>
-      <c r="AD3">
-        <v>9161</v>
-      </c>
-      <c r="AE3">
-        <v>9875</v>
-      </c>
-      <c r="AF3">
-        <v>10990</v>
-      </c>
-      <c r="AG3">
-        <v>11485.02185568</v>
-      </c>
-      <c r="AH3">
-        <v>11642.10519392</v>
-      </c>
-      <c r="AI3">
-        <v>13312.36328037</v>
-      </c>
-      <c r="AJ3">
-        <v>14963.36062795</v>
-      </c>
-      <c r="AK3">
-        <v>17031.93659301</v>
-      </c>
-      <c r="AL3">
-        <v>19035.19727166</v>
-      </c>
-      <c r="AM3">
-        <v>20290.55527418</v>
-      </c>
-      <c r="AN3">
-        <v>22089.12669831</v>
-      </c>
-      <c r="AO3">
-        <v>23713.88500775</v>
-      </c>
-      <c r="AP3">
-        <v>25731.90936369001</v>
-      </c>
-      <c r="AQ3">
-        <v>27159.09921861</v>
-      </c>
-      <c r="AR3">
-        <v>29890.602</v>
-      </c>
-      <c r="AS3">
-        <v>32239.19041952</v>
-      </c>
-      <c r="AT3">
-        <v>33769.74833633</v>
-      </c>
-      <c r="AU3">
-        <v>37294.91268412999</v>
-      </c>
-      <c r="AV3">
-        <v>9097.727669080001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:48">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>403</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>638</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>914</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>1194</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="n">
         <v>1711</v>
       </c>
-      <c r="K4">
+      <c r="K4" t="n">
         <v>2081</v>
       </c>
-      <c r="L4">
+      <c r="L4" t="n">
         <v>1942</v>
       </c>
-      <c r="M4">
+      <c r="M4" t="n">
         <v>2036</v>
       </c>
-      <c r="N4">
+      <c r="N4" t="n">
         <v>1978</v>
       </c>
-      <c r="O4">
+      <c r="O4" t="n">
         <v>1992</v>
       </c>
-      <c r="P4">
+      <c r="P4" t="n">
         <v>1940</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" t="n">
         <v>1771</v>
       </c>
-      <c r="R4">
+      <c r="R4" t="n">
         <v>1572</v>
       </c>
-      <c r="S4">
+      <c r="S4" t="n">
         <v>1339</v>
       </c>
-      <c r="T4">
+      <c r="T4" t="n">
         <v>1136</v>
       </c>
-      <c r="U4">
+      <c r="U4" t="n">
         <v>886</v>
       </c>
-      <c r="V4">
+      <c r="V4" t="n">
         <v>750</v>
       </c>
-      <c r="W4">
+      <c r="W4" t="n">
         <v>637</v>
       </c>
-      <c r="X4">
+      <c r="X4" t="n">
         <v>1031</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" t="n">
         <v>884</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" t="n">
         <v>1187</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" t="n">
         <v>1150</v>
       </c>
-      <c r="AB4">
+      <c r="AB4" t="n">
         <v>1692</v>
       </c>
-      <c r="AC4">
+      <c r="AC4" t="n">
         <v>1883</v>
       </c>
-      <c r="AD4">
+      <c r="AD4" t="n">
         <v>1758</v>
       </c>
-      <c r="AE4">
+      <c r="AE4" t="n">
         <v>1729</v>
       </c>
-      <c r="AF4">
+      <c r="AF4" t="n">
         <v>1506</v>
       </c>
-      <c r="AG4">
+      <c r="AG4" t="n">
         <v>1425.79366957</v>
       </c>
-      <c r="AH4">
+      <c r="AH4" t="n">
         <v>1154.71270561</v>
       </c>
-      <c r="AI4">
+      <c r="AI4" t="n">
         <v>909.1437131</v>
       </c>
-      <c r="AJ4">
+      <c r="AJ4" t="n">
         <v>657.72198105</v>
       </c>
-      <c r="AK4">
+      <c r="AK4" t="n">
         <v>683.99347198</v>
       </c>
-      <c r="AL4">
+      <c r="AL4" t="n">
         <v>502.18832759</v>
       </c>
-      <c r="AM4">
+      <c r="AM4" t="n">
         <v>485.0592326500001</v>
       </c>
-      <c r="AN4">
+      <c r="AN4" t="n">
         <v>498.7440161400001</v>
       </c>
-      <c r="AO4">
+      <c r="AO4" t="n">
         <v>569.10998721</v>
       </c>
-      <c r="AP4">
+      <c r="AP4" t="n">
         <v>747.6124354999999</v>
       </c>
-      <c r="AQ4">
+      <c r="AQ4" t="n">
         <v>704.1100253</v>
       </c>
-      <c r="AR4">
+      <c r="AR4" t="n">
         <v>656.409</v>
       </c>
-      <c r="AS4">
+      <c r="AS4" t="n">
         <v>693.4877586600001</v>
       </c>
-      <c r="AT4">
+      <c r="AT4" t="n">
         <v>725.0540246499999</v>
       </c>
-      <c r="AU4">
+      <c r="AU4" t="n">
         <v>774.1541854700001</v>
       </c>
-      <c r="AV4">
+      <c r="AV4" t="n">
         <v>42.15509667</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>